--- a/ipa_1_2/myUtils/phases trials.xlsx
+++ b/ipa_1_2/myUtils/phases trials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD9B7CF-8F8D-42B2-A00A-E4892BA0CAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569BE6FD-E98F-4E3B-8488-F77D0A3D4605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -372,7 +372,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ipa_1_2/myUtils/phases trials.xlsx
+++ b/ipa_1_2/myUtils/phases trials.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569BE6FD-E98F-4E3B-8488-F77D0A3D4605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD45800E-4CE4-4E14-AE02-1F09227D49B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Identification Task</t>
   </si>
@@ -52,6 +61,9 @@
   </si>
   <si>
     <t>0.2, 0.7, 0.5</t>
+  </si>
+  <si>
+    <t>0.1, 0.2, 0.3, 0.4, 0.5, 06, 0.7, 0.8, 0.9</t>
   </si>
 </sst>
 </file>
@@ -372,11 +384,12 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -405,7 +418,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -422,10 +435,10 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>

--- a/ipa_1_2/myUtils/phases trials.xlsx
+++ b/ipa_1_2/myUtils/phases trials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD45800E-4CE4-4E14-AE02-1F09227D49B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430F00EE-0733-41E1-B054-DF7947AE68A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
     <t>0.2, 0.7, 0.5</t>
   </si>
   <si>
-    <t>0.1, 0.2, 0.3, 0.4, 0.5, 06, 0.7, 0.8, 0.9</t>
+    <t>0.1, 0.2, 0.3, 0.4, 0.5, 0.6, 0.7, 0.8, 0.9</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ipa_1_2/myUtils/phases trials.xlsx
+++ b/ipa_1_2/myUtils/phases trials.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430F00EE-0733-41E1-B054-DF7947AE68A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512AD3CE-025D-482C-AA54-D9F7D4BBC6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Identification Task</t>
   </si>
@@ -415,16 +415,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">

--- a/ipa_1_2/myUtils/phases trials.xlsx
+++ b/ipa_1_2/myUtils/phases trials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512AD3CE-025D-482C-AA54-D9F7D4BBC6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3C0CD3-D375-4254-B895-F9FC2F0DFE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>trials_content</t>
   </si>
   <si>
-    <t>0.1, 0.15, 0.2, 0.3, 0.4, 0.45, 0.5, 0.6, 0.7, 0.75, 0.8, 0.9, 1</t>
-  </si>
-  <si>
     <t>practice_trials_content</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>0.1, 0.2, 0.3, 0.4, 0.5, 0.6, 0.7, 0.8, 0.9</t>
+  </si>
+  <si>
+    <t>0.1, 0.2, 0.3, 0.4, 0.5, 0.6, 0.7, 0.8</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,7 +407,7 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -418,10 +418,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -435,10 +435,10 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
